--- a/AAII_Financials/Quarterly/AMAZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMAZ_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>AMAZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,7 +754,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -768,11 +772,11 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
@@ -782,28 +786,31 @@
       <c r="Q8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -812,14 +819,14 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
@@ -827,21 +834,24 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>-100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -850,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
@@ -859,14 +869,14 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-200</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
@@ -874,10 +884,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,19 +1006,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1021,11 +1041,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1033,11 +1053,14 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,23 +1080,23 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
       <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="N15" s="3">
-        <v>100</v>
-      </c>
       <c r="O15" s="3">
         <v>100</v>
       </c>
@@ -1081,10 +1104,13 @@
         <v>100</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1200</v>
       </c>
       <c r="I17" s="3">
         <v>1200</v>
       </c>
       <c r="J17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
       <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1200</v>
       </c>
       <c r="G18" s="3">
         <v>-1200</v>
       </c>
       <c r="H18" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="I18" s="3">
         <v>-1100</v>
       </c>
       <c r="J18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1233,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1259,91 +1293,97 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1100</v>
       </c>
       <c r="G21" s="3">
         <v>-1100</v>
       </c>
       <c r="H21" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="I21" s="3">
         <v>-900</v>
       </c>
       <c r="J21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>-200</v>
       </c>
       <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1797,11 +1867,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1823,55 +1893,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
-      </c>
-      <c r="I41" s="3">
-        <v>500</v>
       </c>
       <c r="J41" s="3">
         <v>500</v>
       </c>
       <c r="K41" s="3">
+        <v>500</v>
+      </c>
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1100</v>
       </c>
       <c r="P41" s="3">
         <v>1100</v>
       </c>
       <c r="Q41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2157,14 +2250,14 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
@@ -2187,16 +2280,19 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2254,22 +2353,22 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2278,66 +2377,72 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>700</v>
       </c>
       <c r="G46" s="3">
         <v>700</v>
       </c>
       <c r="H46" s="3">
+        <v>700</v>
+      </c>
+      <c r="I46" s="3">
         <v>900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>600</v>
       </c>
       <c r="J46" s="3">
         <v>600</v>
       </c>
       <c r="K46" s="3">
+        <v>600</v>
+      </c>
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2488,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E48" s="3">
         <v>10600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>6500</v>
       </c>
       <c r="L48" s="3">
         <v>6500</v>
       </c>
       <c r="M48" s="3">
+        <v>6500</v>
+      </c>
+      <c r="N48" s="3">
         <v>12900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2580,7 +2700,7 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2613,13 +2733,16 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E54" s="3">
         <v>11000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,122 +2880,129 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
       </c>
       <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2400</v>
       </c>
       <c r="F58" s="3">
         <v>2400</v>
       </c>
       <c r="G58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
       </c>
       <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>900</v>
       </c>
       <c r="H59" s="3">
         <v>900</v>
       </c>
       <c r="I59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
@@ -2874,72 +3011,78 @@
         <v>800</v>
       </c>
       <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2947,25 +3090,25 @@
         <v>3500</v>
       </c>
       <c r="E61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F61" s="3">
         <v>3700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>2800</v>
       </c>
       <c r="J61" s="3">
         <v>2800</v>
       </c>
       <c r="K61" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="L61" s="3">
         <v>2700</v>
@@ -2974,33 +3117,36 @@
         <v>2700</v>
       </c>
       <c r="N61" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="O61" s="3">
         <v>2800</v>
       </c>
       <c r="P61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q61" s="3">
         <v>2700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -3009,13 +3155,13 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>200</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
@@ -3027,13 +3173,16 @@
         <v>200</v>
       </c>
       <c r="P62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E66" s="3">
         <v>10600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>4300</v>
       </c>
       <c r="O66" s="3">
         <v>4300</v>
       </c>
       <c r="P66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>4800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-43100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-40600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-36700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-28700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-26000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-26400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-26200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>3500</v>
       </c>
       <c r="P76" s="3">
         <v>3500</v>
       </c>
       <c r="Q76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R76" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3848,23 +4047,23 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
@@ -3872,10 +4071,13 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>300</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-600</v>
       </c>
       <c r="Q91" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>100</v>
+      </c>
+      <c r="P94" s="3">
         <v>600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>800</v>
       </c>
       <c r="J100" s="3">
+        <v>800</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
     </row>
